--- a/public/assets/file_excel/kebaktian/5/Laporan Kebaktian GKI Guntur Tahun Pelayanan 2014-2015.xlsx
+++ b/public/assets/file_excel/kebaktian/5/Laporan Kebaktian GKI Guntur Tahun Pelayanan 2014-2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gredy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Laporan Kebaktian" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="47">
   <si>
     <t>Laporan Kebaktian GKI Guntur</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>2015-03-29</t>
+  </si>
+  <si>
+    <t>Persembahan</t>
   </si>
 </sst>
 </file>
@@ -178,7 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -201,11 +204,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,6 +244,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,10 +558,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,9 +587,10 @@
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -576,7 +615,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -601,7 +640,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -624,7 +663,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -685,11 +724,14 @@
       <c r="T4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -709,52 +751,55 @@
         <v>27</v>
       </c>
       <c r="G5" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I5" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J5" s="1">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="K5" s="1">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="L5" s="1">
+        <v>87</v>
+      </c>
+      <c r="M5" s="1">
+        <v>53</v>
+      </c>
+      <c r="N5" s="1">
+        <v>55</v>
+      </c>
+      <c r="O5" s="1">
+        <v>108</v>
+      </c>
+      <c r="P5" s="1">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>31</v>
+      </c>
+      <c r="R5" s="1">
         <v>92</v>
       </c>
-      <c r="M5" s="1">
-        <v>64</v>
-      </c>
-      <c r="N5" s="1">
-        <v>37</v>
-      </c>
-      <c r="O5" s="1">
-        <v>101</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>57</v>
-      </c>
-      <c r="R5" s="1">
-        <v>96</v>
-      </c>
       <c r="S5" s="1">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="T5" s="1">
-        <v>51</v>
-      </c>
-      <c r="U5" s="1">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="U5" s="3">
+        <v>52</v>
+      </c>
+      <c r="V5" s="5">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -774,52 +819,55 @@
         <v>27</v>
       </c>
       <c r="G6" s="1">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="H6" s="1">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="I6" s="1">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="J6" s="1">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="K6" s="1">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="L6" s="1">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M6" s="1">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="N6" s="1">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="O6" s="1">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="P6" s="1">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="1">
         <v>63</v>
       </c>
       <c r="R6" s="1">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="S6" s="1">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="T6" s="1">
-        <v>59</v>
-      </c>
-      <c r="U6" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="U6" s="3">
+        <v>92</v>
+      </c>
+      <c r="V6" s="5">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -839,52 +887,55 @@
         <v>27</v>
       </c>
       <c r="G7" s="1">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1">
+        <v>45</v>
+      </c>
+      <c r="I7" s="1">
+        <v>74</v>
+      </c>
+      <c r="J7" s="1">
         <v>56</v>
       </c>
-      <c r="I7" s="1">
-        <v>94</v>
-      </c>
-      <c r="J7" s="1">
-        <v>45</v>
-      </c>
       <c r="K7" s="1">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L7" s="1">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="M7" s="1">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N7" s="1">
+        <v>57</v>
+      </c>
+      <c r="O7" s="1">
+        <v>122</v>
+      </c>
+      <c r="P7" s="1">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>61</v>
+      </c>
+      <c r="R7" s="1">
+        <v>87</v>
+      </c>
+      <c r="S7" s="1">
+        <v>31</v>
+      </c>
+      <c r="T7" s="1">
         <v>29</v>
       </c>
-      <c r="O7" s="1">
-        <v>74</v>
-      </c>
-      <c r="P7" s="1">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>41</v>
-      </c>
-      <c r="R7" s="1">
-        <v>75</v>
-      </c>
-      <c r="S7" s="1">
-        <v>46</v>
-      </c>
-      <c r="T7" s="1">
-        <v>56</v>
-      </c>
-      <c r="U7" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U7" s="3">
+        <v>60</v>
+      </c>
+      <c r="V7" s="5">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -904,52 +955,55 @@
         <v>27</v>
       </c>
       <c r="G8" s="1">
+        <v>59</v>
+      </c>
+      <c r="H8" s="1">
+        <v>56</v>
+      </c>
+      <c r="I8" s="1">
+        <v>115</v>
+      </c>
+      <c r="J8" s="1">
         <v>55</v>
       </c>
-      <c r="H8" s="1">
-        <v>33</v>
-      </c>
-      <c r="I8" s="1">
-        <v>88</v>
-      </c>
-      <c r="J8" s="1">
-        <v>26</v>
-      </c>
       <c r="K8" s="1">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="L8" s="1">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M8" s="1">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="N8" s="1">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="O8" s="1">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="P8" s="1">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="1">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="R8" s="1">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S8" s="1">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="T8" s="1">
-        <v>68</v>
-      </c>
-      <c r="U8" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="U8" s="3">
+        <v>94</v>
+      </c>
+      <c r="V8" s="5">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -969,52 +1023,55 @@
         <v>27</v>
       </c>
       <c r="G9" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="I9" s="1">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J9" s="1">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="K9" s="1">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="L9" s="1">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="M9" s="1">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N9" s="1">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="O9" s="1">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="P9" s="1">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="1">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="R9" s="1">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S9" s="1">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="T9" s="1">
-        <v>55</v>
-      </c>
-      <c r="U9" s="1">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="U9" s="3">
+        <v>58</v>
+      </c>
+      <c r="V9" s="5">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1034,52 +1091,55 @@
         <v>27</v>
       </c>
       <c r="G10" s="1">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H10" s="1">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="I10" s="1">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="J10" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L10" s="1">
         <v>85</v>
       </c>
       <c r="M10" s="1">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="N10" s="1">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="O10" s="1">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="P10" s="1">
         <v>20</v>
       </c>
       <c r="Q10" s="1">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="R10" s="1">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="S10" s="1">
         <v>25</v>
       </c>
       <c r="T10" s="1">
-        <v>40</v>
-      </c>
-      <c r="U10" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="U10" s="3">
+        <v>95</v>
+      </c>
+      <c r="V10" s="5">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1099,52 +1159,55 @@
         <v>27</v>
       </c>
       <c r="G11" s="1">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H11" s="1">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I11" s="1">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J11" s="1">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="K11" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L11" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M11" s="1">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="N11" s="1">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="O11" s="1">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="P11" s="1">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="1">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="R11" s="1">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="S11" s="1">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="T11" s="1">
-        <v>34</v>
-      </c>
-      <c r="U11" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="U11" s="3">
+        <v>120</v>
+      </c>
+      <c r="V11" s="5">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1164,52 +1227,55 @@
         <v>27</v>
       </c>
       <c r="G12" s="1">
+        <v>65</v>
+      </c>
+      <c r="H12" s="1">
+        <v>30</v>
+      </c>
+      <c r="I12" s="1">
+        <v>95</v>
+      </c>
+      <c r="J12" s="1">
+        <v>48</v>
+      </c>
+      <c r="K12" s="1">
+        <v>41</v>
+      </c>
+      <c r="L12" s="1">
+        <v>89</v>
+      </c>
+      <c r="M12" s="1">
+        <v>30</v>
+      </c>
+      <c r="N12" s="1">
+        <v>70</v>
+      </c>
+      <c r="O12" s="1">
+        <v>100</v>
+      </c>
+      <c r="P12" s="1">
         <v>32</v>
       </c>
-      <c r="H12" s="1">
-        <v>37</v>
-      </c>
-      <c r="I12" s="1">
-        <v>69</v>
-      </c>
-      <c r="J12" s="1">
-        <v>65</v>
-      </c>
-      <c r="K12" s="1">
-        <v>44</v>
-      </c>
-      <c r="L12" s="1">
-        <v>109</v>
-      </c>
-      <c r="M12" s="1">
-        <v>20</v>
-      </c>
-      <c r="N12" s="1">
-        <v>37</v>
-      </c>
-      <c r="O12" s="1">
+      <c r="Q12" s="1">
+        <v>51</v>
+      </c>
+      <c r="R12" s="1">
+        <v>83</v>
+      </c>
+      <c r="S12" s="1">
         <v>57</v>
       </c>
-      <c r="P12" s="1">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>60</v>
-      </c>
-      <c r="R12" s="1">
-        <v>82</v>
-      </c>
-      <c r="S12" s="1">
-        <v>43</v>
-      </c>
       <c r="T12" s="1">
-        <v>28</v>
-      </c>
-      <c r="U12" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="U12" s="3">
+        <v>105</v>
+      </c>
+      <c r="V12" s="5">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1229,52 +1295,55 @@
         <v>27</v>
       </c>
       <c r="G13" s="1">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H13" s="1">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I13" s="1">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="J13" s="1">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="K13" s="1">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="L13" s="1">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="M13" s="1">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="N13" s="1">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="O13" s="1">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P13" s="1">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="1">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="R13" s="1">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="S13" s="1">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="T13" s="1">
-        <v>44</v>
-      </c>
-      <c r="U13" s="1">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="U13" s="3">
+        <v>55</v>
+      </c>
+      <c r="V13" s="5">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1294,52 +1363,55 @@
         <v>27</v>
       </c>
       <c r="G14" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H14" s="1">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I14" s="1">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J14" s="1">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="K14" s="1">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="L14" s="1">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M14" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="O14" s="1">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P14" s="1">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="1">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R14" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S14" s="1">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="T14" s="1">
-        <v>68</v>
-      </c>
-      <c r="U14" s="1">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="U14" s="3">
+        <v>84</v>
+      </c>
+      <c r="V14" s="5">
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1359,52 +1431,55 @@
         <v>27</v>
       </c>
       <c r="G15" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H15" s="1">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I15" s="1">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J15" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15" s="1">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L15" s="1">
+        <v>95</v>
+      </c>
+      <c r="M15" s="1">
+        <v>31</v>
+      </c>
+      <c r="N15" s="1">
+        <v>25</v>
+      </c>
+      <c r="O15" s="1">
+        <v>56</v>
+      </c>
+      <c r="P15" s="1">
+        <v>66</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>35</v>
+      </c>
+      <c r="R15" s="1">
         <v>101</v>
       </c>
-      <c r="M15" s="1">
+      <c r="S15" s="1">
+        <v>69</v>
+      </c>
+      <c r="T15" s="1">
         <v>30</v>
       </c>
-      <c r="N15" s="1">
-        <v>24</v>
-      </c>
-      <c r="O15" s="1">
-        <v>54</v>
-      </c>
-      <c r="P15" s="1">
-        <v>49</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>44</v>
-      </c>
-      <c r="R15" s="1">
-        <v>93</v>
-      </c>
-      <c r="S15" s="1">
-        <v>40</v>
-      </c>
-      <c r="T15" s="1">
-        <v>56</v>
-      </c>
-      <c r="U15" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U15" s="3">
+        <v>99</v>
+      </c>
+      <c r="V15" s="5">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1424,52 +1499,55 @@
         <v>27</v>
       </c>
       <c r="G16" s="1">
+        <v>54</v>
+      </c>
+      <c r="H16" s="1">
+        <v>20</v>
+      </c>
+      <c r="I16" s="1">
+        <v>74</v>
+      </c>
+      <c r="J16" s="1">
+        <v>25</v>
+      </c>
+      <c r="K16" s="1">
+        <v>27</v>
+      </c>
+      <c r="L16" s="1">
+        <v>52</v>
+      </c>
+      <c r="M16" s="1">
+        <v>49</v>
+      </c>
+      <c r="N16" s="1">
         <v>64</v>
       </c>
-      <c r="H16" s="1">
-        <v>57</v>
-      </c>
-      <c r="I16" s="1">
-        <v>121</v>
-      </c>
-      <c r="J16" s="1">
-        <v>52</v>
-      </c>
-      <c r="K16" s="1">
+      <c r="O16" s="1">
+        <v>113</v>
+      </c>
+      <c r="P16" s="1">
         <v>25</v>
       </c>
-      <c r="L16" s="1">
-        <v>77</v>
-      </c>
-      <c r="M16" s="1">
-        <v>44</v>
-      </c>
-      <c r="N16" s="1">
-        <v>58</v>
-      </c>
-      <c r="O16" s="1">
-        <v>102</v>
-      </c>
-      <c r="P16" s="1">
-        <v>47</v>
-      </c>
       <c r="Q16" s="1">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="R16" s="1">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="S16" s="1">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="T16" s="1">
-        <v>33</v>
-      </c>
-      <c r="U16" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="U16" s="3">
+        <v>75</v>
+      </c>
+      <c r="V16" s="5">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1489,52 +1567,55 @@
         <v>27</v>
       </c>
       <c r="G17" s="1">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="H17" s="1">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I17" s="1">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J17" s="1">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="K17" s="1">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L17" s="1">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="M17" s="1">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N17" s="1">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O17" s="1">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="P17" s="1">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="1">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="R17" s="1">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="S17" s="1">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="T17" s="1">
-        <v>27</v>
-      </c>
-      <c r="U17" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="U17" s="3">
+        <v>67</v>
+      </c>
+      <c r="V17" s="5">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1554,52 +1635,55 @@
         <v>27</v>
       </c>
       <c r="G18" s="1">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H18" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I18" s="1">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J18" s="1">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="K18" s="1">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="L18" s="1">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M18" s="1">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="N18" s="1">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="O18" s="1">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="P18" s="1">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="Q18" s="1">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="R18" s="1">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="S18" s="1">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="T18" s="1">
-        <v>56</v>
-      </c>
-      <c r="U18" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="U18" s="3">
+        <v>69</v>
+      </c>
+      <c r="V18" s="5">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1619,52 +1703,55 @@
         <v>27</v>
       </c>
       <c r="G19" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H19" s="1">
+        <v>36</v>
+      </c>
+      <c r="I19" s="1">
+        <v>79</v>
+      </c>
+      <c r="J19" s="1">
+        <v>46</v>
+      </c>
+      <c r="K19" s="1">
+        <v>26</v>
+      </c>
+      <c r="L19" s="1">
+        <v>72</v>
+      </c>
+      <c r="M19" s="1">
         <v>64</v>
       </c>
-      <c r="I19" s="1">
-        <v>111</v>
-      </c>
-      <c r="J19" s="1">
-        <v>22</v>
-      </c>
-      <c r="K19" s="1">
-        <v>45</v>
-      </c>
-      <c r="L19" s="1">
-        <v>67</v>
-      </c>
-      <c r="M19" s="1">
-        <v>20</v>
-      </c>
       <c r="N19" s="1">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="O19" s="1">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="P19" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q19" s="1">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="R19" s="1">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="S19" s="1">
         <v>45</v>
       </c>
       <c r="T19" s="1">
-        <v>66</v>
-      </c>
-      <c r="U19" s="1">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="U19" s="3">
+        <v>97</v>
+      </c>
+      <c r="V19" s="5">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1684,52 +1771,55 @@
         <v>27</v>
       </c>
       <c r="G20" s="1">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="H20" s="1">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="I20" s="1">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="J20" s="1">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="K20" s="1">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="L20" s="1">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="M20" s="1">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N20" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="O20" s="1">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="P20" s="1">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="1">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="R20" s="1">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="S20" s="1">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="T20" s="1">
-        <v>34</v>
-      </c>
-      <c r="U20" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="U20" s="3">
+        <v>90</v>
+      </c>
+      <c r="V20" s="5">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1749,52 +1839,55 @@
         <v>27</v>
       </c>
       <c r="G21" s="1">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H21" s="1">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I21" s="1">
+        <v>78</v>
+      </c>
+      <c r="J21" s="1">
         <v>62</v>
       </c>
-      <c r="J21" s="1">
-        <v>21</v>
-      </c>
       <c r="K21" s="1">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="L21" s="1">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="M21" s="1">
+        <v>67</v>
+      </c>
+      <c r="N21" s="1">
+        <v>57</v>
+      </c>
+      <c r="O21" s="1">
+        <v>124</v>
+      </c>
+      <c r="P21" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>29</v>
+      </c>
+      <c r="R21" s="1">
         <v>69</v>
       </c>
-      <c r="N21" s="1">
-        <v>54</v>
-      </c>
-      <c r="O21" s="1">
-        <v>123</v>
-      </c>
-      <c r="P21" s="1">
-        <v>49</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>47</v>
-      </c>
-      <c r="R21" s="1">
-        <v>96</v>
-      </c>
       <c r="S21" s="1">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="T21" s="1">
-        <v>37</v>
-      </c>
-      <c r="U21" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="U21" s="3">
+        <v>114</v>
+      </c>
+      <c r="V21" s="5">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1814,52 +1907,55 @@
         <v>27</v>
       </c>
       <c r="G22" s="1">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H22" s="1">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I22" s="1">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="J22" s="1">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K22" s="1">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="L22" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M22" s="1">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="N22" s="1">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="O22" s="1">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="P22" s="1">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R22" s="1">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="S22" s="1">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T22" s="1">
-        <v>44</v>
-      </c>
-      <c r="U22" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="U22" s="3">
+        <v>59</v>
+      </c>
+      <c r="V22" s="5">
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1879,52 +1975,55 @@
         <v>27</v>
       </c>
       <c r="G23" s="1">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="H23" s="1">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="I23" s="1">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="J23" s="1">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="K23" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L23" s="1">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="M23" s="1">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N23" s="1">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="O23" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P23" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="1">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R23" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S23" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T23" s="1">
-        <v>33</v>
-      </c>
-      <c r="U23" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="U23" s="3">
+        <v>59</v>
+      </c>
+      <c r="V23" s="5">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1944,52 +2043,55 @@
         <v>27</v>
       </c>
       <c r="G24" s="1">
+        <v>36</v>
+      </c>
+      <c r="H24" s="1">
+        <v>29</v>
+      </c>
+      <c r="I24" s="1">
+        <v>65</v>
+      </c>
+      <c r="J24" s="1">
+        <v>43</v>
+      </c>
+      <c r="K24" s="1">
         <v>44</v>
       </c>
-      <c r="H24" s="1">
+      <c r="L24" s="1">
+        <v>87</v>
+      </c>
+      <c r="M24" s="1">
+        <v>35</v>
+      </c>
+      <c r="N24" s="1">
         <v>20</v>
       </c>
-      <c r="I24" s="1">
+      <c r="O24" s="1">
+        <v>55</v>
+      </c>
+      <c r="P24" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>45</v>
+      </c>
+      <c r="R24" s="1">
+        <v>77</v>
+      </c>
+      <c r="S24" s="1">
+        <v>69</v>
+      </c>
+      <c r="T24" s="1">
         <v>64</v>
       </c>
-      <c r="J24" s="1">
-        <v>33</v>
-      </c>
-      <c r="K24" s="1">
-        <v>35</v>
-      </c>
-      <c r="L24" s="1">
-        <v>68</v>
-      </c>
-      <c r="M24" s="1">
-        <v>68</v>
-      </c>
-      <c r="N24" s="1">
-        <v>27</v>
-      </c>
-      <c r="O24" s="1">
-        <v>95</v>
-      </c>
-      <c r="P24" s="1">
-        <v>55</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>36</v>
-      </c>
-      <c r="R24" s="1">
-        <v>91</v>
-      </c>
-      <c r="S24" s="1">
-        <v>24</v>
-      </c>
-      <c r="T24" s="1">
-        <v>57</v>
-      </c>
-      <c r="U24" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U24" s="3">
+        <v>133</v>
+      </c>
+      <c r="V24" s="5">
+        <v>2900000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2009,52 +2111,55 @@
         <v>27</v>
       </c>
       <c r="G25" s="1">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H25" s="1">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="I25" s="1">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="J25" s="1">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="K25" s="1">
         <v>25</v>
       </c>
       <c r="L25" s="1">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="M25" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N25" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O25" s="1">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="P25" s="1">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="Q25" s="1">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="R25" s="1">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="S25" s="1">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="T25" s="1">
-        <v>31</v>
-      </c>
-      <c r="U25" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="U25" s="3">
+        <v>66</v>
+      </c>
+      <c r="V25" s="5">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -2074,52 +2179,55 @@
         <v>27</v>
       </c>
       <c r="G26" s="1">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="H26" s="1">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I26" s="1">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="J26" s="1">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="K26" s="1">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L26" s="1">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="M26" s="1">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="N26" s="1">
+        <v>52</v>
+      </c>
+      <c r="O26" s="1">
+        <v>100</v>
+      </c>
+      <c r="P26" s="1">
+        <v>37</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>40</v>
+      </c>
+      <c r="R26" s="1">
+        <v>77</v>
+      </c>
+      <c r="S26" s="1">
+        <v>61</v>
+      </c>
+      <c r="T26" s="1">
         <v>53</v>
       </c>
-      <c r="O26" s="1">
-        <v>113</v>
-      </c>
-      <c r="P26" s="1">
-        <v>28</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>25</v>
-      </c>
-      <c r="R26" s="1">
-        <v>53</v>
-      </c>
-      <c r="S26" s="1">
-        <v>69</v>
-      </c>
-      <c r="T26" s="1">
-        <v>46</v>
-      </c>
-      <c r="U26" s="1">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U26" s="3">
+        <v>114</v>
+      </c>
+      <c r="V26" s="5">
+        <v>3100000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -2139,52 +2247,55 @@
         <v>27</v>
       </c>
       <c r="G27" s="1">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="H27" s="1">
+        <v>36</v>
+      </c>
+      <c r="I27" s="1">
+        <v>103</v>
+      </c>
+      <c r="J27" s="1">
         <v>40</v>
       </c>
-      <c r="I27" s="1">
-        <v>78</v>
-      </c>
-      <c r="J27" s="1">
-        <v>21</v>
-      </c>
       <c r="K27" s="1">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="L27" s="1">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="M27" s="1">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="N27" s="1">
+        <v>68</v>
+      </c>
+      <c r="O27" s="1">
+        <v>128</v>
+      </c>
+      <c r="P27" s="1">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>30</v>
+      </c>
+      <c r="R27" s="1">
+        <v>54</v>
+      </c>
+      <c r="S27" s="1">
         <v>56</v>
       </c>
-      <c r="O27" s="1">
-        <v>97</v>
-      </c>
-      <c r="P27" s="1">
-        <v>33</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>62</v>
-      </c>
-      <c r="R27" s="1">
-        <v>95</v>
-      </c>
-      <c r="S27" s="1">
-        <v>32</v>
-      </c>
       <c r="T27" s="1">
-        <v>56</v>
-      </c>
-      <c r="U27" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="U27" s="3">
+        <v>85</v>
+      </c>
+      <c r="V27" s="5">
+        <v>3200000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -2204,52 +2315,55 @@
         <v>27</v>
       </c>
       <c r="G28" s="1">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="H28" s="1">
+        <v>27</v>
+      </c>
+      <c r="I28" s="1">
+        <v>47</v>
+      </c>
+      <c r="J28" s="1">
+        <v>48</v>
+      </c>
+      <c r="K28" s="1">
+        <v>28</v>
+      </c>
+      <c r="L28" s="1">
+        <v>76</v>
+      </c>
+      <c r="M28" s="1">
+        <v>44</v>
+      </c>
+      <c r="N28" s="1">
+        <v>61</v>
+      </c>
+      <c r="O28" s="1">
+        <v>105</v>
+      </c>
+      <c r="P28" s="1">
+        <v>36</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>42</v>
+      </c>
+      <c r="R28" s="1">
+        <v>78</v>
+      </c>
+      <c r="S28" s="1">
+        <v>68</v>
+      </c>
+      <c r="T28" s="1">
         <v>70</v>
       </c>
-      <c r="I28" s="1">
-        <v>129</v>
-      </c>
-      <c r="J28" s="1">
-        <v>68</v>
-      </c>
-      <c r="K28" s="1">
-        <v>43</v>
-      </c>
-      <c r="L28" s="1">
-        <v>111</v>
-      </c>
-      <c r="M28" s="1">
-        <v>33</v>
-      </c>
-      <c r="N28" s="1">
-        <v>29</v>
-      </c>
-      <c r="O28" s="1">
-        <v>62</v>
-      </c>
-      <c r="P28" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>68</v>
-      </c>
-      <c r="R28" s="1">
-        <v>121</v>
-      </c>
-      <c r="S28" s="1">
-        <v>60</v>
-      </c>
-      <c r="T28" s="1">
-        <v>53</v>
-      </c>
-      <c r="U28" s="1">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U28" s="3">
+        <v>138</v>
+      </c>
+      <c r="V28" s="5">
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2272,49 +2386,52 @@
         <v>46</v>
       </c>
       <c r="H29" s="1">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I29" s="1">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J29" s="1">
         <v>65</v>
       </c>
       <c r="K29" s="1">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L29" s="1">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="M29" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N29" s="1">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O29" s="1">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="P29" s="1">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="Q29" s="1">
+        <v>52</v>
+      </c>
+      <c r="R29" s="1">
+        <v>98</v>
+      </c>
+      <c r="S29" s="1">
         <v>43</v>
       </c>
-      <c r="R29" s="1">
-        <v>71</v>
-      </c>
-      <c r="S29" s="1">
-        <v>23</v>
-      </c>
       <c r="T29" s="1">
-        <v>42</v>
-      </c>
-      <c r="U29" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="U29" s="3">
+        <v>99</v>
+      </c>
+      <c r="V29" s="5">
+        <v>3400000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -2334,52 +2451,55 @@
         <v>27</v>
       </c>
       <c r="G30" s="1">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H30" s="1">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I30" s="1">
+        <v>78</v>
+      </c>
+      <c r="J30" s="1">
+        <v>24</v>
+      </c>
+      <c r="K30" s="1">
+        <v>68</v>
+      </c>
+      <c r="L30" s="1">
+        <v>92</v>
+      </c>
+      <c r="M30" s="1">
+        <v>60</v>
+      </c>
+      <c r="N30" s="1">
         <v>67</v>
       </c>
-      <c r="J30" s="1">
-        <v>28</v>
-      </c>
-      <c r="K30" s="1">
-        <v>23</v>
-      </c>
-      <c r="L30" s="1">
-        <v>51</v>
-      </c>
-      <c r="M30" s="1">
-        <v>31</v>
-      </c>
-      <c r="N30" s="1">
-        <v>27</v>
-      </c>
       <c r="O30" s="1">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="P30" s="1">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="Q30" s="1">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="R30" s="1">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="S30" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="T30" s="1">
-        <v>50</v>
-      </c>
-      <c r="U30" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="U30" s="3">
+        <v>91</v>
+      </c>
+      <c r="V30" s="5">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -2399,52 +2519,55 @@
         <v>27</v>
       </c>
       <c r="G31" s="1">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H31" s="1">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I31" s="1">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="J31" s="1">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K31" s="1">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="L31" s="1">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="M31" s="1">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="N31" s="1">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="O31" s="1">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="P31" s="1">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="1">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="R31" s="1">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="S31" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T31" s="1">
-        <v>52</v>
-      </c>
-      <c r="U31" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="U31" s="3">
+        <v>68</v>
+      </c>
+      <c r="V31" s="5">
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -2464,52 +2587,55 @@
         <v>27</v>
       </c>
       <c r="G32" s="1">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H32" s="1">
+        <v>47</v>
+      </c>
+      <c r="I32" s="1">
+        <v>116</v>
+      </c>
+      <c r="J32" s="1">
+        <v>69</v>
+      </c>
+      <c r="K32" s="1">
         <v>40</v>
       </c>
-      <c r="I32" s="1">
-        <v>98</v>
-      </c>
-      <c r="J32" s="1">
-        <v>32</v>
-      </c>
-      <c r="K32" s="1">
+      <c r="L32" s="1">
+        <v>109</v>
+      </c>
+      <c r="M32" s="1">
+        <v>66</v>
+      </c>
+      <c r="N32" s="1">
+        <v>53</v>
+      </c>
+      <c r="O32" s="1">
+        <v>119</v>
+      </c>
+      <c r="P32" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="1">
         <v>47</v>
       </c>
-      <c r="L32" s="1">
-        <v>79</v>
-      </c>
-      <c r="M32" s="1">
-        <v>69</v>
-      </c>
-      <c r="N32" s="1">
+      <c r="R32" s="1">
+        <v>72</v>
+      </c>
+      <c r="S32" s="1">
+        <v>70</v>
+      </c>
+      <c r="T32" s="1">
         <v>20</v>
       </c>
-      <c r="O32" s="1">
-        <v>89</v>
-      </c>
-      <c r="P32" s="1">
-        <v>33</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>30</v>
-      </c>
-      <c r="R32" s="1">
-        <v>63</v>
-      </c>
-      <c r="S32" s="1">
-        <v>50</v>
-      </c>
-      <c r="T32" s="1">
-        <v>50</v>
-      </c>
-      <c r="U32" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U32" s="3">
+        <v>90</v>
+      </c>
+      <c r="V32" s="5">
+        <v>3700000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -2529,52 +2655,55 @@
         <v>27</v>
       </c>
       <c r="G33" s="1">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H33" s="1">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I33" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J33" s="1">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="K33" s="1">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L33" s="1">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="M33" s="1">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="N33" s="1">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="O33" s="1">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="P33" s="1">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>69</v>
+      </c>
+      <c r="R33" s="1">
+        <v>93</v>
+      </c>
+      <c r="S33" s="1">
         <v>38</v>
       </c>
-      <c r="Q33" s="1">
-        <v>53</v>
-      </c>
-      <c r="R33" s="1">
-        <v>91</v>
-      </c>
-      <c r="S33" s="1">
-        <v>34</v>
-      </c>
       <c r="T33" s="1">
-        <v>28</v>
-      </c>
-      <c r="U33" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="U33" s="3">
+        <v>83</v>
+      </c>
+      <c r="V33" s="5">
+        <v>3800000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -2594,52 +2723,55 @@
         <v>27</v>
       </c>
       <c r="G34" s="1">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H34" s="1">
+        <v>27</v>
+      </c>
+      <c r="I34" s="1">
+        <v>50</v>
+      </c>
+      <c r="J34" s="1">
+        <v>41</v>
+      </c>
+      <c r="K34" s="1">
+        <v>60</v>
+      </c>
+      <c r="L34" s="1">
+        <v>101</v>
+      </c>
+      <c r="M34" s="1">
+        <v>29</v>
+      </c>
+      <c r="N34" s="1">
         <v>36</v>
       </c>
-      <c r="I34" s="1">
-        <v>69</v>
-      </c>
-      <c r="J34" s="1">
-        <v>64</v>
-      </c>
-      <c r="K34" s="1">
-        <v>40</v>
-      </c>
-      <c r="L34" s="1">
-        <v>104</v>
-      </c>
-      <c r="M34" s="1">
-        <v>49</v>
-      </c>
-      <c r="N34" s="1">
-        <v>50</v>
-      </c>
       <c r="O34" s="1">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="P34" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q34" s="1">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="R34" s="1">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="S34" s="1">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="T34" s="1">
-        <v>20</v>
-      </c>
-      <c r="U34" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="U34" s="3">
+        <v>102</v>
+      </c>
+      <c r="V34" s="5">
+        <v>3900000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -2659,52 +2791,55 @@
         <v>27</v>
       </c>
       <c r="G35" s="1">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H35" s="1">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I35" s="1">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="J35" s="1">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="K35" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L35" s="1">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="M35" s="1">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N35" s="1">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="O35" s="1">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="P35" s="1">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="Q35" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R35" s="1">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="S35" s="1">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="T35" s="1">
-        <v>67</v>
-      </c>
-      <c r="U35" s="1">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="U35" s="3">
+        <v>108</v>
+      </c>
+      <c r="V35" s="5">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -2724,52 +2859,55 @@
         <v>27</v>
       </c>
       <c r="G36" s="1">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="H36" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I36" s="1">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="J36" s="1">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="K36" s="1">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="L36" s="1">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="M36" s="1">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N36" s="1">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="O36" s="1">
+        <v>55</v>
+      </c>
+      <c r="P36" s="1">
         <v>59</v>
       </c>
-      <c r="P36" s="1">
-        <v>66</v>
-      </c>
       <c r="Q36" s="1">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="R36" s="1">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="S36" s="1">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="T36" s="1">
-        <v>48</v>
-      </c>
-      <c r="U36" s="1">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="U36" s="3">
+        <v>124</v>
+      </c>
+      <c r="V36" s="5">
+        <v>4100000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -2789,52 +2927,55 @@
         <v>27</v>
       </c>
       <c r="G37" s="1">
+        <v>30</v>
+      </c>
+      <c r="H37" s="1">
+        <v>30</v>
+      </c>
+      <c r="I37" s="1">
         <v>60</v>
       </c>
-      <c r="H37" s="1">
-        <v>44</v>
-      </c>
-      <c r="I37" s="1">
-        <v>104</v>
-      </c>
       <c r="J37" s="1">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="K37" s="1">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="L37" s="1">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M37" s="1">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="N37" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O37" s="1">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="P37" s="1">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="Q37" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R37" s="1">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="S37" s="1">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T37" s="1">
-        <v>22</v>
-      </c>
-      <c r="U37" s="1">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="U37" s="3">
+        <v>89</v>
+      </c>
+      <c r="V37" s="5">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -2854,52 +2995,55 @@
         <v>27</v>
       </c>
       <c r="G38" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H38" s="1">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I38" s="1">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="J38" s="1">
         <v>45</v>
       </c>
       <c r="K38" s="1">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="L38" s="1">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="M38" s="1">
+        <v>26</v>
+      </c>
+      <c r="N38" s="1">
+        <v>26</v>
+      </c>
+      <c r="O38" s="1">
+        <v>52</v>
+      </c>
+      <c r="P38" s="1">
         <v>47</v>
       </c>
-      <c r="N38" s="1">
-        <v>48</v>
-      </c>
-      <c r="O38" s="1">
-        <v>95</v>
-      </c>
-      <c r="P38" s="1">
-        <v>56</v>
-      </c>
       <c r="Q38" s="1">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="R38" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S38" s="1">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="T38" s="1">
-        <v>47</v>
-      </c>
-      <c r="U38" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="U38" s="3">
+        <v>106</v>
+      </c>
+      <c r="V38" s="5">
+        <v>4300000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -2919,52 +3063,55 @@
         <v>27</v>
       </c>
       <c r="G39" s="1">
+        <v>54</v>
+      </c>
+      <c r="H39" s="1">
+        <v>50</v>
+      </c>
+      <c r="I39" s="1">
+        <v>104</v>
+      </c>
+      <c r="J39" s="1">
+        <v>61</v>
+      </c>
+      <c r="K39" s="1">
+        <v>54</v>
+      </c>
+      <c r="L39" s="1">
+        <v>115</v>
+      </c>
+      <c r="M39" s="1">
+        <v>27</v>
+      </c>
+      <c r="N39" s="1">
         <v>34</v>
       </c>
-      <c r="H39" s="1">
-        <v>69</v>
-      </c>
-      <c r="I39" s="1">
-        <v>103</v>
-      </c>
-      <c r="J39" s="1">
-        <v>23</v>
-      </c>
-      <c r="K39" s="1">
-        <v>47</v>
-      </c>
-      <c r="L39" s="1">
-        <v>70</v>
-      </c>
-      <c r="M39" s="1">
+      <c r="O39" s="1">
         <v>61</v>
       </c>
-      <c r="N39" s="1">
-        <v>20</v>
-      </c>
-      <c r="O39" s="1">
-        <v>81</v>
-      </c>
       <c r="P39" s="1">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="Q39" s="1">
         <v>23</v>
       </c>
       <c r="R39" s="1">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="S39" s="1">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="T39" s="1">
-        <v>22</v>
-      </c>
-      <c r="U39" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="U39" s="3">
+        <v>99</v>
+      </c>
+      <c r="V39" s="5">
+        <v>4400000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -2984,52 +3131,55 @@
         <v>27</v>
       </c>
       <c r="G40" s="1">
+        <v>63</v>
+      </c>
+      <c r="H40" s="1">
+        <v>33</v>
+      </c>
+      <c r="I40" s="1">
+        <v>96</v>
+      </c>
+      <c r="J40" s="1">
+        <v>66</v>
+      </c>
+      <c r="K40" s="1">
+        <v>28</v>
+      </c>
+      <c r="L40" s="1">
+        <v>94</v>
+      </c>
+      <c r="M40" s="1">
+        <v>51</v>
+      </c>
+      <c r="N40" s="1">
+        <v>24</v>
+      </c>
+      <c r="O40" s="1">
+        <v>75</v>
+      </c>
+      <c r="P40" s="1">
         <v>69</v>
       </c>
-      <c r="H40" s="1">
-        <v>25</v>
-      </c>
-      <c r="I40" s="1">
-        <v>94</v>
-      </c>
-      <c r="J40" s="1">
-        <v>63</v>
-      </c>
-      <c r="K40" s="1">
-        <v>22</v>
-      </c>
-      <c r="L40" s="1">
-        <v>85</v>
-      </c>
-      <c r="M40" s="1">
-        <v>61</v>
-      </c>
-      <c r="N40" s="1">
-        <v>48</v>
-      </c>
-      <c r="O40" s="1">
-        <v>109</v>
-      </c>
-      <c r="P40" s="1">
-        <v>46</v>
-      </c>
       <c r="Q40" s="1">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="R40" s="1">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="S40" s="1">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="T40" s="1">
-        <v>24</v>
-      </c>
-      <c r="U40" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="U40" s="3">
+        <v>73</v>
+      </c>
+      <c r="V40" s="5">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -3049,52 +3199,55 @@
         <v>27</v>
       </c>
       <c r="G41" s="1">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="H41" s="1">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I41" s="1">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="J41" s="1">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="K41" s="1">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="L41" s="1">
+        <v>64</v>
+      </c>
+      <c r="M41" s="1">
         <v>58</v>
       </c>
-      <c r="M41" s="1">
-        <v>25</v>
-      </c>
       <c r="N41" s="1">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O41" s="1">
+        <v>116</v>
+      </c>
+      <c r="P41" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>27</v>
+      </c>
+      <c r="R41" s="1">
+        <v>77</v>
+      </c>
+      <c r="S41" s="1">
+        <v>32</v>
+      </c>
+      <c r="T41" s="1">
+        <v>59</v>
+      </c>
+      <c r="U41" s="3">
         <v>91</v>
       </c>
-      <c r="P41" s="1">
-        <v>33</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>23</v>
-      </c>
-      <c r="R41" s="1">
-        <v>56</v>
-      </c>
-      <c r="S41" s="1">
-        <v>59</v>
-      </c>
-      <c r="T41" s="1">
-        <v>31</v>
-      </c>
-      <c r="U41" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V41" s="5">
+        <v>4600000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -3114,52 +3267,55 @@
         <v>27</v>
       </c>
       <c r="G42" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H42" s="1">
+        <v>46</v>
+      </c>
+      <c r="I42" s="1">
+        <v>114</v>
+      </c>
+      <c r="J42" s="1">
+        <v>70</v>
+      </c>
+      <c r="K42" s="1">
+        <v>51</v>
+      </c>
+      <c r="L42" s="1">
+        <v>121</v>
+      </c>
+      <c r="M42" s="1">
+        <v>45</v>
+      </c>
+      <c r="N42" s="1">
+        <v>25</v>
+      </c>
+      <c r="O42" s="1">
+        <v>70</v>
+      </c>
+      <c r="P42" s="1">
+        <v>65</v>
+      </c>
+      <c r="Q42" s="1">
         <v>43</v>
       </c>
-      <c r="I42" s="1">
-        <v>112</v>
-      </c>
-      <c r="J42" s="1">
-        <v>68</v>
-      </c>
-      <c r="K42" s="1">
-        <v>52</v>
-      </c>
-      <c r="L42" s="1">
-        <v>120</v>
-      </c>
-      <c r="M42" s="1">
-        <v>32</v>
-      </c>
-      <c r="N42" s="1">
-        <v>23</v>
-      </c>
-      <c r="O42" s="1">
-        <v>55</v>
-      </c>
-      <c r="P42" s="1">
-        <v>34</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>66</v>
-      </c>
       <c r="R42" s="1">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="S42" s="1">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="T42" s="1">
-        <v>43</v>
-      </c>
-      <c r="U42" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="U42" s="3">
+        <v>110</v>
+      </c>
+      <c r="V42" s="5">
+        <v>4700000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -3179,49 +3335,52 @@
         <v>27</v>
       </c>
       <c r="G43" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H43" s="1">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="I43" s="1">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="J43" s="1">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K43" s="1">
+        <v>65</v>
+      </c>
+      <c r="L43" s="1">
+        <v>92</v>
+      </c>
+      <c r="M43" s="1">
+        <v>42</v>
+      </c>
+      <c r="N43" s="1">
+        <v>49</v>
+      </c>
+      <c r="O43" s="1">
+        <v>91</v>
+      </c>
+      <c r="P43" s="1">
+        <v>63</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>35</v>
+      </c>
+      <c r="R43" s="1">
+        <v>98</v>
+      </c>
+      <c r="S43" s="1">
         <v>34</v>
       </c>
-      <c r="L43" s="1">
-        <v>70</v>
-      </c>
-      <c r="M43" s="1">
-        <v>65</v>
-      </c>
-      <c r="N43" s="1">
-        <v>22</v>
-      </c>
-      <c r="O43" s="1">
-        <v>87</v>
-      </c>
-      <c r="P43" s="1">
-        <v>29</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>55</v>
-      </c>
-      <c r="R43" s="1">
-        <v>84</v>
-      </c>
-      <c r="S43" s="1">
-        <v>29</v>
-      </c>
       <c r="T43" s="1">
-        <v>63</v>
-      </c>
-      <c r="U43" s="1">
-        <v>92</v>
+        <v>56</v>
+      </c>
+      <c r="U43" s="3">
+        <v>90</v>
+      </c>
+      <c r="V43" s="5">
+        <v>4800000</v>
       </c>
     </row>
   </sheetData>
